--- a/infinite/Excel/Trampoline_蹦床表.xlsx
+++ b/infinite/Excel/Trampoline_蹦床表.xlsx
@@ -589,9 +589,15 @@
       <c r="T5" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>1686B162</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <v>1FF9CDFC</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -611,9 +617,15 @@
       <c r="T6" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>1CD5126B</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <v>2D3CA1CB</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
